--- a/autoprecios2/Precios.xlsx
+++ b/autoprecios2/Precios.xlsx
@@ -747,7 +747,7 @@
         <v>34006.58</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>5894.339999999997</v>
+        <v>589434</v>
       </c>
       <c r="E15" s="1" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>65771.66</v>
       </c>
       <c r="D80" s="1" t="n">
-        <v>-9186.320000000007</v>
+        <v>-918632</v>
       </c>
       <c r="E80" s="1" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>50163.25</v>
       </c>
       <c r="D84" s="1" t="n">
-        <v>1531.040000000001</v>
+        <v>153104</v>
       </c>
       <c r="E84" s="1" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>21979.94</v>
       </c>
       <c r="D132" s="1" t="n">
-        <v>-13155.79</v>
+        <v>-1315579</v>
       </c>
       <c r="E132" s="1" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         <v>320120.69</v>
       </c>
       <c r="D143" s="1" t="n">
-        <v>-1344.080000000016</v>
+        <v>-134408</v>
       </c>
       <c r="E143" s="1" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>152757.62</v>
       </c>
       <c r="D144" s="1" t="n">
-        <v>7934.450000000012</v>
+        <v>793445</v>
       </c>
       <c r="E144" s="1" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         <v>49780.08</v>
       </c>
       <c r="D148" s="1" t="n">
-        <v>-963.1800000000003</v>
+        <v>-4489839</v>
       </c>
       <c r="E148" s="1" t="inlineStr">
         <is>
@@ -5748,11 +5748,11 @@
         <v>53652.1</v>
       </c>
       <c r="D238" s="1" t="n">
-        <v>-2781.459999999999</v>
+        <v>4550543</v>
       </c>
       <c r="E238" s="1" t="inlineStr">
         <is>
-          <t>Disminución</t>
+          <t>Aumento</t>
         </is>
       </c>
     </row>
@@ -5769,7 +5769,7 @@
         <v>41735.06</v>
       </c>
       <c r="D239" s="1" t="n">
-        <v>2894.310000000005</v>
+        <v>289431</v>
       </c>
       <c r="E239" s="1" t="inlineStr">
         <is>
@@ -6135,7 +6135,7 @@
         <v>33334.18</v>
       </c>
       <c r="D255" s="1" t="n">
-        <v>68169.79000000001</v>
+        <v>6816979</v>
       </c>
       <c r="E255" s="1" t="inlineStr">
         <is>
@@ -6248,11 +6248,11 @@
         <v>53652.1</v>
       </c>
       <c r="D260" s="1" t="n">
-        <v>-2781.459999999999</v>
+        <v>4550543</v>
       </c>
       <c r="E260" s="1" t="inlineStr">
         <is>
-          <t>Disminución</t>
+          <t>Aumento</t>
         </is>
       </c>
     </row>
@@ -6644,7 +6644,7 @@
         <v>91326.36</v>
       </c>
       <c r="D278" s="1" t="n">
-        <v>-4734.600000000006</v>
+        <v>-473460</v>
       </c>
       <c r="E278" s="1" t="inlineStr">
         <is>
@@ -6941,7 +6941,7 @@
         <v>32415.35</v>
       </c>
       <c r="D291" s="1" t="n">
-        <v>-4527.449999999997</v>
+        <v>-2962656</v>
       </c>
       <c r="E291" s="1" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>23971.21</v>
       </c>
       <c r="D292" s="1" t="n">
-        <v>-82.14999999999782</v>
+        <v>-8215</v>
       </c>
       <c r="E292" s="1" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>5921.63</v>
       </c>
       <c r="D298" s="1" t="n">
-        <v>-11.26000000000022</v>
+        <v>-1126</v>
       </c>
       <c r="E298" s="1" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>21841.16</v>
       </c>
       <c r="D299" s="1" t="n">
-        <v>666.6100000000006</v>
+        <v>66661</v>
       </c>
       <c r="E299" s="1" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>2810.62</v>
       </c>
       <c r="D300" s="1" t="n">
-        <v>-2810.62</v>
+        <v>-281062</v>
       </c>
       <c r="E300" s="1" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>5921.63</v>
       </c>
       <c r="D301" s="1" t="n">
-        <v>-11.26000000000022</v>
+        <v>-1126</v>
       </c>
       <c r="E301" s="1" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>11408.71</v>
       </c>
       <c r="D302" s="1" t="n">
-        <v>-244.5399999999991</v>
+        <v>-24454</v>
       </c>
       <c r="E302" s="1" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>56675.42</v>
       </c>
       <c r="D312" s="1" t="n">
-        <v>1729.82</v>
+        <v>172982</v>
       </c>
       <c r="E312" s="1" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         <v>56675.42</v>
       </c>
       <c r="D378" s="1" t="n">
-        <v>1729.82</v>
+        <v>172982</v>
       </c>
       <c r="E378" s="1" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>56675.42</v>
       </c>
       <c r="D379" s="1" t="n">
-        <v>1729.82</v>
+        <v>172982</v>
       </c>
       <c r="E379" s="1" t="inlineStr">
         <is>
